--- a/Billiard/個人製作スケジュール.xlsx
+++ b/Billiard/個人製作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Production\Billiard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBD5D7D-BB81-469C-B927-CADF0D68E8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5516CBFF-570E-425B-994E-5FD39C144AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D0EC01B-1125-43BE-A798-3E0D4A1BFF63}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>チーム制作をやめる代りに個人製作の新たなスケジュール</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,26 @@
   </si>
   <si>
     <t>90%※①</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20%※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※②週末に親戚が家に来た為、作業する時間があまりありませんでした。今週ダッシュします</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,17 +527,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99094BF-D6D3-41A5-A469-311BC2B6A997}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -917,19 +940,19 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="13" t="s">
         <v>50</v>
       </c>
@@ -938,38 +961,38 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="18.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13">
-        <v>0</v>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="18.75">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="13">
         <v>0</v>
       </c>
@@ -977,19 +1000,19 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="18.75">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="13">
         <v>0</v>
       </c>
@@ -997,19 +1020,19 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="18.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="13">
         <v>0</v>
       </c>
@@ -1017,38 +1040,38 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:22" ht="18.75">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:22" ht="18.75">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="13">
         <v>0</v>
       </c>
@@ -1057,19 +1080,19 @@
       <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="13">
         <v>0</v>
       </c>
@@ -1090,10 +1113,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75">
-      <c r="A15" s="18" t="s">
-        <v>49</v>
-      </c>
+    <row r="15" spans="1:22">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1106,90 +1126,125 @@
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" ht="18.75">
+      <c r="A17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75">
+      <c r="A18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C7:D7"/>
@@ -1206,14 +1261,13 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
